--- a/biology/Zoologie/Grallaire_du_Para/Grallaire_du_Para.xlsx
+++ b/biology/Zoologie/Grallaire_du_Para/Grallaire_du_Para.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylopezus paraensis
-La Grallaire du Para (Hylopezus paraensis) est une espèce monotypique[4] d'oiseaux de la famille des Grallariidae endémique du Brésil.
+La Grallaire du Para (Hylopezus paraensis) est une espèce monotypique d'oiseaux de la famille des Grallariidae endémique du Brésil.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hylopezus paraensis a été initialement nommée en 1910 par l'ornithologue brésilienne Emilia Snethlage (1868-1929) comme étant une sous-espèce sous le taxon Gallaria macularius paraensis[2] et ce après s'être rendu compte que la description qu'elle avait faite de cet oiseau en 1907 sous le protonyme de Gallaria macularius berlepschi[5] reprenait un nom déjà occupé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hylopezus paraensis a été initialement nommée en 1910 par l'ornithologue brésilienne Emilia Snethlage (1868-1929) comme étant une sous-espèce sous le taxon Gallaria macularius paraensis et ce après s'être rendu compte que la description qu'elle avait faite de cet oiseau en 1907 sous le protonyme de Gallaria macularius berlepschi reprenait un nom déjà occupé.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est subtropical ou des forêts tropicales humides.
 </t>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, composée de para et du suffixe latin -ensis, « qui vit dans, qui habite », fait référence à l’État du Pará dans le Nord du Brésil. 
 </t>
